--- a/Data/Transitions/19581961Translation.xlsx
+++ b/Data/Transitions/19581961Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="591">
   <si>
     <t>id</t>
   </si>
@@ -469,7 +469,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -670,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1709,9 +1709,6 @@
   </si>
   <si>
     <t>{226.0: 0.9845670939053099, 216.0: 0.015432906094690033}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -3800,7 +3797,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>565</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3811,7 +3808,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4020,7 +4017,7 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4350,7 +4347,7 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4394,7 +4391,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4537,7 +4534,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>565</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4911,7 +4908,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5021,7 +5018,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5065,7 +5062,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5384,7 +5381,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5549,7 +5546,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5604,7 +5601,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5615,7 +5612,7 @@
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5780,7 +5777,7 @@
         <v>331</v>
       </c>
       <c r="C330" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5813,7 +5810,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5989,7 +5986,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6011,7 +6008,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6022,7 +6019,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6341,7 +6338,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6748,7 +6745,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7188,7 +7185,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7452,7 +7449,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7529,7 +7526,7 @@
         <v>490</v>
       </c>
       <c r="C489" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -7727,7 +7724,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7848,7 +7845,7 @@
         <v>519</v>
       </c>
       <c r="C518" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -7991,7 +7988,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -8013,7 +8010,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8068,7 +8065,7 @@
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="539" spans="1:3">
